--- a/BC.xlsx
+++ b/BC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,22 +32,34 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
     <t>jeudi</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>15:45</t>
   </si>
   <si>
     <t>mardi</t>
   </si>
   <si>
+    <t>U3-109</t>
+  </si>
+  <si>
     <t>vendredi</t>
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>U3-4</t>
   </si>
   <si>
     <t>ESE (KRTX9AC1)</t>
@@ -138,10 +150,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -158,7 +172,7 @@
         <v>45932.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -177,10 +191,12 @@
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -195,15 +211,17 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -220,7 +238,7 @@
         <v>45937.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -239,10 +257,12 @@
       <c r="E10" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="0"/>
     </row>
@@ -259,7 +279,7 @@
         <v>45944.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -278,10 +298,12 @@
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -298,7 +320,7 @@
         <v>45954.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -312,21 +334,23 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>3</v>
@@ -340,10 +364,12 @@
       <c r="E17" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F17" s="0"/>
+      <c r="F17" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G17" s="0"/>
       <c r="H17" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I17" s="0"/>
     </row>

--- a/BC.xlsx
+++ b/BC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,16 +32,31 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>U3-4</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>15:45</t>
+    <t>U3-110</t>
   </si>
   <si>
     <t>mardi</t>
+  </si>
+  <si>
+    <t>U3-109</t>
   </si>
   <si>
     <t>vendredi</t>
@@ -100,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,10 +153,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -150,15 +167,15 @@
         <v>0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45932.0</v>
+        <v>45922.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -177,10 +194,12 @@
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -195,15 +214,17 @@
         <v>4</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -212,15 +233,15 @@
         <v>0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>45937.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -239,94 +260,100 @@
       <c r="E10" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>42.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="1">
-        <v>45944.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>9</v>
+      <c r="A12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>41.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>2</v>
+      <c r="A13" t="n" s="1">
+        <v>45937.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E13" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I13" s="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n" s="0">
-        <v>43.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="1">
-        <v>45954.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>10</v>
+      <c r="A15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>2</v>
+      <c r="A16" t="n" s="1">
+        <v>45944.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I16" s="0"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>3</v>
@@ -340,12 +367,80 @@
       <c r="E17" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F17" s="0"/>
+      <c r="F17" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="G17" s="0"/>
       <c r="H17" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="1">
+        <v>45954.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G20" s="0"/>
+      <c r="H20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G21" s="0"/>
+      <c r="H21" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I21" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
